--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value634.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value634.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21450678823429</v>
+        <v>1.198088645935059</v>
       </c>
       <c r="B1">
-        <v>2.298102339289429</v>
+        <v>2.393446922302246</v>
       </c>
       <c r="C1">
-        <v>3.513943045201081</v>
+        <v>4.438894271850586</v>
       </c>
       <c r="D1">
-        <v>3.32904866027263</v>
+        <v>2.715698480606079</v>
       </c>
       <c r="E1">
-        <v>1.117264273861857</v>
+        <v>1.108286619186401</v>
       </c>
     </row>
   </sheetData>
